--- a/数据整理/stocks/其他/301035-润丰股份.xlsx
+++ b/数据整理/stocks/其他/301035-润丰股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,13 +939,635 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4591</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.72</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/301035-润丰股份.xlsx
+++ b/数据整理/stocks/其他/301035-润丰股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.49</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1561,13 +1604,1335 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1721</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9418</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7359</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5896</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000367</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002061</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.72</v>
       </c>
     </row>
